--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572274.844025327</v>
+        <v>573058.9899633557</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -659,64 +661,64 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +743,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.2037313894189</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>129.0037164986567</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="X5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.15171354838739</v>
+        <v>8.172609644471923</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1136,70 +1138,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="F8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.436184442062472</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>115.4706064564045</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>17.55829564281238</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1418,7 +1420,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7350472114737</v>
+        <v>107.2644082870342</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1531,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="E13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1616,58 +1618,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1692,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>112.3758583503548</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>52.92813148301354</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1734,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1844,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>152.9063151287279</v>
       </c>
     </row>
     <row r="19">
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2084,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>110.1113226016109</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>3.26531605719669</v>
-      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>29.79900896488263</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2497,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,64 +2557,64 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>99.13012673870382</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,16 +2930,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>182.2687512655407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>136.9043953634215</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>2.919086313172766</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3284,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>101.6115991519771</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>42.7940796014714</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>31.69844046683744</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>85.68170746940434</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3636,7 +3638,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>46.54968785507688</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>46.75281614456515</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,10 +4109,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4337,13 +4339,13 @@
         <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4391,10 @@
         <v>305.9856669025954</v>
       </c>
       <c r="D3" t="n">
-        <v>157.0512572413442</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>146.7482118971399</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4410,19 +4412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4509,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="X5" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638.5512795730664</v>
+        <v>645.6008794760112</v>
       </c>
       <c r="C6" t="n">
-        <v>464.0982502919394</v>
+        <v>471.1478501948842</v>
       </c>
       <c r="D6" t="n">
-        <v>315.1638406306881</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E6" t="n">
-        <v>155.9263856252326</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F6" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,7 +4652,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
         <v>366.5706756325438</v>
@@ -4689,7 +4691,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>806.7666165931344</v>
+        <v>813.8162164960793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
         <v>133.2380658808762</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
         <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4814,7 +4816,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y8" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X8" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305.7142837842288</v>
+        <v>329.6252822535739</v>
       </c>
       <c r="C9" t="n">
-        <v>131.2612545031018</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D9" t="n">
-        <v>131.2612545031018</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E9" t="n">
-        <v>131.2612545031018</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F9" t="n">
-        <v>131.2612545031018</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G9" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
         <v>16.44142755506243</v>
@@ -4893,10 +4895,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>305.7142837842288</v>
+        <v>497.8406192736419</v>
       </c>
       <c r="Y9" t="n">
-        <v>305.7142837842288</v>
+        <v>497.8406192736419</v>
       </c>
     </row>
     <row r="10">
@@ -4939,22 +4941,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>453.0030327087026</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C11" t="n">
-        <v>245.4092504478133</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>245.4092504478133</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E11" t="n">
-        <v>245.4092504478133</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F11" t="n">
-        <v>245.4092504478133</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G11" t="n">
-        <v>245.4092504478133</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
         <v>28.51141680214578</v>
@@ -5066,25 +5068,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>660.5968149695918</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T11" t="n">
-        <v>660.5968149695918</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U11" t="n">
-        <v>660.5968149695918</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V11" t="n">
-        <v>660.5968149695918</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W11" t="n">
-        <v>453.0030327087026</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X11" t="n">
-        <v>453.0030327087026</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y11" t="n">
-        <v>453.0030327087026</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>305.7142837842288</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C12" t="n">
-        <v>305.7142837842288</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>305.7142837842288</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="13">
@@ -5179,22 +5181,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,19 +5281,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5306,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.6583192815992</v>
+        <v>244.0756638309303</v>
       </c>
       <c r="C15" t="n">
-        <v>70.6583192815992</v>
+        <v>244.0756638309303</v>
       </c>
       <c r="D15" t="n">
-        <v>70.6583192815992</v>
+        <v>244.0756638309303</v>
       </c>
       <c r="E15" t="n">
-        <v>70.6583192815992</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F15" t="n">
-        <v>70.6583192815992</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G15" t="n">
-        <v>70.6583192815992</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
-        <v>70.6583192815992</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5358,22 +5360,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>238.8736563016672</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V15" t="n">
-        <v>238.8736563016672</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W15" t="n">
-        <v>238.8736563016672</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X15" t="n">
-        <v>238.8736563016672</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y15" t="n">
-        <v>238.8736563016672</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="16">
@@ -5419,16 +5421,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I16" t="n">
         <v>133.2380658808762</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5555,10 +5557,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>641.3909951282167</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,43 +5603,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>809.6063321482848</v>
       </c>
     </row>
     <row r="19">
@@ -5692,10 +5694,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>266.0282188019862</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>49.38115216564972</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>49.38115216564972</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>49.38115216564972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>49.38115216564972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>49.38115216564972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>49.38115216564972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,22 +6329,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>863.9257143604303</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
         <v>19.28114311021272</v>
@@ -6403,31 +6405,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
         <v>274.7999090013961</v>
@@ -6491,7 +6493,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U29" t="n">
         <v>761.6974622895962</v>
@@ -6500,13 +6502,13 @@
         <v>761.6974622895962</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>282.3388210166704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>282.3388210166704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>899.5229907989976</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V30" t="n">
-        <v>634.6640077999109</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>450.5541580367384</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6658,7 +6660,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
         <v>829.5248650203655</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.7099827492369</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C33" t="n">
-        <v>307.2569534681098</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D33" t="n">
-        <v>158.3225438068586</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>961.1085834771284</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>961.1085834771284</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>961.1085834771284</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>732.8849652135175</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>732.8849652135175</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.7099827492369</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>941.9819777229218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>521.1447485139397</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C36" t="n">
-        <v>418.5067695725487</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="D36" t="n">
-        <v>269.5723599112974</v>
+        <v>62.50748614200202</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="37">
@@ -7117,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51.29976984439196</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C39" t="n">
-        <v>51.29976984439196</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>265.0657773776928</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>105.8283223722373</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X39" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y39" t="n">
-        <v>51.29976984439196</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7415,16 +7417,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,22 +7441,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7497,7 +7499,7 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
         <v>618.608711759224</v>
@@ -7521,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90708355515102</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.8736563016672</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C45" t="n">
-        <v>64.42062702054022</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>64.42062702054022</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>64.42062702054022</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>64.42062702054022</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>64.42062702054022</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>64.42062702054022</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7755,22 +7757,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>446.4674385625565</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>446.4674385625565</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>446.4674385625565</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>446.4674385625565</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y45" t="n">
-        <v>238.8736563016672</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="46">
@@ -7837,16 +7839,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7985,7 +7987,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7994,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8462,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8541,13 +8543,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8784,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>261.0929869123474</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,10 +11147,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -22547,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22592,19 +22594,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22629,13 +22631,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>18.44134906598205</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>16.06549589472718</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="6">
@@ -22872,10 +22874,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.530982228917</v>
+        <v>197.5100861328324</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23024,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>200.9102526910243</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23112,10 +23114,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.9073327211482</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23163,7 +23165,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>90.30237874707298</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23179,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>149.6885254558155</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>330.2637912448367</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>199.809058715315</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>18.71001835316503</v>
+        <v>40.18065727760452</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23419,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>131.0571773754</v>
       </c>
       <c r="E13" t="n">
-        <v>35.51648688708401</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23437,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,16 +23548,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23580,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>45.2692221050461</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23589,10 +23591,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>36.46850136840153</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.8756670037568</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,28 +23734,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>52.77638064857643</v>
       </c>
     </row>
     <row r="19">
@@ -23932,13 +23934,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23972,13 +23974,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>47.53375785379006</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C23" t="n">
-        <v>362.0075757138109</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>59.59762388653245</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24385,10 +24387,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.027707413939311</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8070558482636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24731,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U29" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24774,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>36.26901108812093</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.41394451176365</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,25 +24964,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20.74068509197943</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>97.23874783947036</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,7 +25156,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25172,10 +25174,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>128.0146919313124</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>71.09689983633866</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>114.8510008539295</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,13 +25286,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25400,7 +25402,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25442,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7466250978013</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>59.38750492397953</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25646,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>39.44647140371328</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25679,22 +25681,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>52.06643139743881</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>42.84694499633819</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,19 +25867,19 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>323.5320421805953</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>212.8595420456369</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>163.3715527109161</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>42.64381670684993</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449660.2933966017</v>
+        <v>449660.2933966016</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473617.4616593693</v>
+        <v>473617.4616593695</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473617.4616593695</v>
+        <v>473617.4616593693</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449660.2933966017</v>
+        <v>449660.2933966019</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110430.3492844521</v>
+        <v>110430.3492844522</v>
       </c>
       <c r="C2" t="n">
         <v>110430.3492844521</v>
@@ -26418,7 +26420,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="D4" t="n">
         <v>8092.707817725995</v>
@@ -26427,7 +26429,7 @@
         <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26442,7 +26444,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26454,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
     </row>
     <row r="5">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12659.20005681117</v>
+        <v>-12659.20005681113</v>
       </c>
       <c r="C6" t="n">
-        <v>56214.55652487866</v>
+        <v>56214.55652487868</v>
       </c>
       <c r="D6" t="n">
-        <v>56214.5565248787</v>
+        <v>56214.55652487867</v>
       </c>
       <c r="E6" t="n">
         <v>89842.15652487871</v>
@@ -26534,34 +26536,34 @@
         <v>89842.15652487866</v>
       </c>
       <c r="G6" t="n">
-        <v>83382.64796466152</v>
+        <v>83382.64796466149</v>
       </c>
       <c r="H6" t="n">
+        <v>93111.69093882863</v>
+      </c>
+      <c r="I6" t="n">
+        <v>93111.69093882863</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39339.18004861918</v>
+      </c>
+      <c r="K6" t="n">
         <v>93111.6909388286</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>93111.69093882861</v>
       </c>
-      <c r="J6" t="n">
-        <v>39339.18004861916</v>
-      </c>
-      <c r="K6" t="n">
-        <v>93111.69093882864</v>
-      </c>
-      <c r="L6" t="n">
-        <v>93111.69093882864</v>
-      </c>
       <c r="M6" t="n">
+        <v>93111.6909388286</v>
+      </c>
+      <c r="N6" t="n">
         <v>93111.69093882861</v>
-      </c>
-      <c r="N6" t="n">
-        <v>93111.69093882859</v>
       </c>
       <c r="O6" t="n">
         <v>89842.15652487869</v>
       </c>
       <c r="P6" t="n">
-        <v>89842.15652487871</v>
+        <v>89842.15652487872</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M6" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="M6" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35182,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35261,13 +35263,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>127.1185794980172</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>91.0829537758999</v>
-      </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N42" t="n">
         <v>197.2140931478448</v>
-      </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>573058.9899633557</v>
+        <v>468826.4916999125</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5337355.029614645</v>
+        <v>5337355.029614644</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>129.0037164986567</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>65.63780594030548</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,65 +895,65 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="U5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.172609644471923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1135,62 +1135,62 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="X9" t="n">
-        <v>115.4706064564045</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>205.5178444382804</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>9.211010870930394</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>112.3758583503548</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X15" t="n">
         <v>205.5178444382804</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>152.9063151287279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>70.34400780127524</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,67 +2317,67 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>236.3558083596639</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2563,55 +2563,55 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>99.13012673870382</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>157.5811759701104</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,10 +2933,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>2.919086313172766</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>155.9328799502333</v>
       </c>
     </row>
     <row r="34">
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>42.7940796014714</v>
+        <v>7.417475588902602</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>85.68170746940434</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>19.01466768882745</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>205.5178444382804</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3884,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>205.5178444382804</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>9.336946277399601</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4333,16 +4333,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4354,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D3" t="n">
-        <v>305.9856669025954</v>
+        <v>83.4963742889648</v>
       </c>
       <c r="E3" t="n">
-        <v>146.7482118971399</v>
+        <v>83.4963742889648</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>83.4963742889648</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="4">
@@ -4506,28 +4506,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
         <v>16.44142755506243</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4579,7 +4579,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4594,25 +4594,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645.6008794760112</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>471.1478501948842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>322.2134405336329</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4649,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4679,19 +4679,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>813.8162164960793</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
         <v>16.44142755506243</v>
@@ -4816,7 +4816,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>329.6252822535739</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4886,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X9" t="n">
-        <v>497.8406192736419</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>497.8406192736419</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4995,19 +4995,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5053,10 +5053,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5068,25 +5068,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5129,16 +5129,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5153,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5287,10 +5287,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5308,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>244.0756638309303</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>244.0756638309303</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>244.0756638309303</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,19 +5363,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M15" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M15" t="n">
-        <v>435.9652341458732</v>
-      </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>619.8847831118876</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>619.8847831118876</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>619.8847831118876</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F17" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X17" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y17" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>641.3909951282167</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C18" t="n">
-        <v>466.9379658470897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y18" t="n">
-        <v>809.6063321482848</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5737,10 +5737,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5779,16 +5779,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W20" t="n">
         <v>506.1786963984129</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,22 +5858,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5931,22 +5931,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
@@ -5980,7 +5980,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6171,10 +6171,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>863.9257143604303</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>690.5083698110992</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>690.5083698110992</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>462.2847515474883</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>227.1326433157456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>602.6976558490886</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
     </row>
     <row r="28">
@@ -6408,10 +6408,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>899.5229907989976</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>82.32787816303323</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W32" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>961.1085834771284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>961.1085834771284</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>961.1085834771284</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>732.8849652135175</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>732.8849652135175</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>489.4361885694175</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X33" t="n">
-        <v>281.5846883638847</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y33" t="n">
-        <v>281.5846883638847</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6885,10 +6885,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6979,7 +6979,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
         <v>506.1786963984129</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>385.8949250843803</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C36" t="n">
-        <v>211.4418958032533</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="D36" t="n">
-        <v>62.50748614200202</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X36" t="n">
-        <v>761.8705608694022</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y36" t="n">
-        <v>554.1102621044483</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="37">
@@ -7156,13 +7156,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C39" t="n">
-        <v>414.0001870389441</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D39" t="n">
-        <v>265.0657773776928</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="E39" t="n">
-        <v>105.8283223722373</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>39.24201080221809</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W39" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X39" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y39" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="40">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7417,13 +7417,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
         <v>618.608711759224</v>
@@ -7523,13 +7523,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V42" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
         <v>16.44142755506243</v>
@@ -7602,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7657,13 +7657,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7736,7 +7736,7 @@
         <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
         <v>618.608711759224</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>233.4664686820119</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,10 +8227,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8543,16 +8543,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,13 +8701,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8777,7 +8777,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8786,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11074,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11147,10 +11147,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N42" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11305,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11384,10 +11384,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N45" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22549,10 +22549,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>296.6012590300472</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>16.06549589472718</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>71.70571122290515</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22688,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22834,13 +22834,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972316</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>197.5100861328324</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23023,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23153,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>65.32175003622348</v>
       </c>
       <c r="X9" t="n">
-        <v>90.30237874707298</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>149.1651971824026</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>199.809058715315</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23342,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>40.18065727760452</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>131.0571773754</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23548,22 +23548,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>45.2692221050461</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X15" t="n">
         <v>0.2551407651970692</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.8756670037568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23788,7 +23788,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.77638064857643</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24098,10 +24098,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>15.33917480125569</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24411,13 +24411,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,16 +24490,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
@@ -24533,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.027707413939311</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>94.11380719080918</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24679,31 +24679,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>86.99651130768093</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>36.26901108812093</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24934,13 +24934,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25013,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>97.23874783947036</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25061,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>49.74981582707102</v>
       </c>
     </row>
     <row r="34">
@@ -25125,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>114.8510008539295</v>
+        <v>150.2276048664984</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>59.38750492397953</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>118.3288494743832</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>384.1517380750474</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>52.06643139743881</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>180.7200942177732</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25772,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>24.75286782224003</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>212.8595420456369</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>201.358201303431</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>163.3715527109161</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25994,19 +25994,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449660.2933966017</v>
+        <v>449660.2933966016</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449660.2933966016</v>
+        <v>449660.2933966017</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473617.4616593695</v>
+        <v>473617.4616593693</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473617.4616593695</v>
+        <v>473617.4616593693</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473617.4616593693</v>
+        <v>473617.4616593695</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473617.4616593693</v>
+        <v>473617.4616593695</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449660.2933966019</v>
+        <v>449660.2933966017</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110430.3492844522</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="C2" t="n">
         <v>110430.3492844521</v>
@@ -26325,10 +26325,10 @@
         <v>110430.3492844522</v>
       </c>
       <c r="F2" t="n">
-        <v>110430.3492844521</v>
+        <v>110430.3492844522</v>
       </c>
       <c r="G2" t="n">
-        <v>116312.4707719327</v>
+        <v>116312.4707719326</v>
       </c>
       <c r="H2" t="n">
         <v>116312.4707719327</v>
@@ -26429,7 +26429,7 @@
         <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26459,7 +26459,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12659.20005681113</v>
+        <v>-25297.36221167167</v>
       </c>
       <c r="C6" t="n">
-        <v>56214.55652487868</v>
+        <v>43576.39437001819</v>
       </c>
       <c r="D6" t="n">
-        <v>56214.55652487867</v>
+        <v>43576.39437001819</v>
       </c>
       <c r="E6" t="n">
-        <v>89842.15652487871</v>
+        <v>77203.9943700182</v>
       </c>
       <c r="F6" t="n">
-        <v>89842.15652487866</v>
+        <v>77203.9943700182</v>
       </c>
       <c r="G6" t="n">
-        <v>83382.64796466149</v>
+        <v>71164.63734462101</v>
       </c>
       <c r="H6" t="n">
-        <v>93111.69093882863</v>
+        <v>80893.68031878817</v>
       </c>
       <c r="I6" t="n">
-        <v>93111.69093882863</v>
+        <v>80893.68031878815</v>
       </c>
       <c r="J6" t="n">
-        <v>39339.18004861918</v>
+        <v>27121.16942857873</v>
       </c>
       <c r="K6" t="n">
-        <v>93111.6909388286</v>
+        <v>80893.68031878815</v>
       </c>
       <c r="L6" t="n">
-        <v>93111.69093882861</v>
+        <v>80893.68031878817</v>
       </c>
       <c r="M6" t="n">
-        <v>93111.6909388286</v>
+        <v>80893.68031878815</v>
       </c>
       <c r="N6" t="n">
-        <v>93111.69093882861</v>
+        <v>80893.68031878812</v>
       </c>
       <c r="O6" t="n">
-        <v>89842.15652487869</v>
+        <v>77203.99437001819</v>
       </c>
       <c r="P6" t="n">
-        <v>89842.15652487872</v>
+        <v>77203.99437001822</v>
       </c>
     </row>
   </sheetData>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35263,16 +35263,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O9" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,13 +35421,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35506,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37794,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>197.2140931478448</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38025,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>197.2140931478448</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
